--- a/biology/Zoologie/Cestoda/Cestoda.xlsx
+++ b/biology/Zoologie/Cestoda/Cestoda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cestodes (nom masculin) ou Cestoda (nom scientifique) sont une classe de plathelminthes parasites dont les adultes vivent dans le tube digestif des vertébrés. Ils ont une extrémité supérieure ronde, le scolex, avec des crochets et des ventouses qui leur permettent de s'accrocher.  Derrière le scolex, ils ont un cou en croissance puis un strobile suivi par des segments appelés proglottis (immatures, matures, gravides) qui contiennent de nombreux œufs. Comme les cestodes n'ont pas de tube digestif à proprement parler, ils absorbent la nourriture prédigérée par l'hôte : ils sont osmotrophes.
 Les bothriocéphales et les ténias sont des cestodes.
@@ -512,7 +524,9 @@
           <t>Constitution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cestodes ont un corps plat, segmenté et un aspect rubané. Les cestodes sont spécialisés dans le parasitisme avec des organes de fixation sur l'hôte et l'absence de tube digestif. Ce sont des mésoparasites. Les segments ont pour fonction de produire des œufs (jusqu'à 5000 œufs par jour). le segment mâle est antérieur et le segment femelle est postérieur, ainsi la reproduction se fait par autofécondation, par repliement. Dans leur cycle il n'existe pratiquement pas de phase libre.
 Il existe deux groupes importants : les cyclophyllidiens, dont le scolex possède quatre ventouses, et les bothriocéphales, dont le scolex porte des pseudobothridies longitudinales qui font office de ventouses.
@@ -547,12 +561,14 @@
           <t>Liste des sous-classes et ordres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (1er mars 2011)[1], World Register of Marine Species                               (4 novembre 2023)[2] et ITIS      (1er mars 2011)[3], les Cestoda disposent de deux sous-classes :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (1er mars 2011), World Register of Marine Species                               (4 novembre 2023) et ITIS      (1er mars 2011), les Cestoda disposent de deux sous-classes :
 sous-classe Cestodaria
 sous-classe Eucestoda
-La décomposition en ordres est la suivante[2] :
+La décomposition en ordres est la suivante :
 Classe Cestoda
 sous-classe Cestodaria
 ordre Amphilinidea Poche, 1922
@@ -580,9 +596,43 @@
 genre Bothriotaenia Railliet, 1892
 genre Dibothrium Diesing, 1850
 genre Maccallumiella Yamaguti, 1952
-genre Prosthecocotyle Monticelli, 1892
-Taxons obsolètes [2]
-Ancien ordre Proteocephalidea : maintenant dans Onchoproteocephalidea
+genre Prosthecocotyle Monticelli, 1892</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cestoda</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cestoda</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des sous-classes et ordres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxons obsolètes [2]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ancien ordre Proteocephalidea : maintenant dans Onchoproteocephalidea
 Ancien ordre Pseudophyllidea : maintenant dans Diphyllobothriidea ou Bothriocephalidea</t>
         </is>
       </c>
